--- a/ТОвары_export_20250413_183002.xlsx
+++ b/ТОвары_export_20250413_183002.xlsx
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A2:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -370,17 +370,17 @@
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
